--- a/Master_Timetable.xlsx
+++ b/Master_Timetable.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,19 +466,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>APHM-12--- (23)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ACSC-2A--- (24)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ACAL-12--- (29)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>AELC-12--- (24)</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>ACAL-12--- (29)</t>
@@ -486,44 +486,44 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>MAC--11--- (29)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ASTA-12--- (29)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MACLV12--- (29)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>MACLV11--- (29)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MADD-09--- (24)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MADEM10--- (29)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>APHM-12--- (23)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>MAC--11--- (29)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>MCALC12--- (29)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MAC--11--- (29)</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MATPH12--- (23)</t>
+          <t>MADD-09--- (24)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ASTA-12--- (29)</t>
+          <t>AELC-12--- (24)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -533,222 +533,222 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MADGE09D-- (21)</t>
+          <t>MCH--11--- (23)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MADIT09--- (24)</t>
+          <t>MADW-09--- (21)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MAE--09--- (29)</t>
+          <t>MADGE09D-- (24)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MCH--11--- (23)</t>
+          <t>MADIT09--- (24)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MACLV12--- (29)</t>
+          <t>MCH--12--- (23)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>MADER09--- (24)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MADEM10--- (29)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MATPH12--- (23)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MAC--11--- (29)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>MCH--12--- (23)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MADIT09--- (24)</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MBIT-11 (24)</t>
+          <t>MCH--12--- (23)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MATPH12--- (23)</t>
+          <t>MBIT-11 (29)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MCH--12--- (23)</t>
+          <t>MATPH12--- (23)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>MCMCL12--- (24)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MADIT09--- (24)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>MADEM10--- (29)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MATPH12D-- (14)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MADER09--- (24)</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>MCH--11--- (23)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MCLE-10--L (24)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>MCLE-10--- (29)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>MCH--11--- (23)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>MCH--11--- (23)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>MCH--12--- (23)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MCLE-10--- (29)</t>
+          <t>MCH--11--- (23)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MADW-09--- (21)</t>
+          <t>MCMPR11W-- (24)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MADIT09--- (24)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MATPH12--- (23)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MCH--11--- (23)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MCMPS11--- (24)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>MCMPS10C-- (24)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>MCH--12--- (23)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MADIT09--- (24)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MCLE-10--L (17)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MCH--11--- (23)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>MCMPS10C-- (24)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>MCMPS10--- (24)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>MCLE-10--- (29)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MCMPS11--- (24)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MAE--09--- (29)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MCALC12--- (29)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MCH--11--- (23)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>MCTWR11--- (24)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MCALC12--- (29)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MCMPS11--- (24)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MCH--11--- (23)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MCMPR11W-- (24)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MCLE-10--- (29)</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>MCMPS10C-- (24)</t>
+          <t>MCTWR11--- (24)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MCMPS11--- (24)</t>
+          <t>MCMCL12--- (24)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MDRM-10--- (29)</t>
+          <t>MCMPS10--- (24)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MCH--11--- (23)</t>
+          <t>MDCF-10--- (23)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MDCF-10--- (17)</t>
+          <t>MATPH12D-- (23)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MCH--12--- (23)</t>
+          <t>MCLE-10--- (29)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MCMPS10--- (24)</t>
+          <t>MCLE-10--- (29)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MCLE-10--- (29)</t>
+          <t>MDRM-11--- (29)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MCMPS11--- (24)</t>
+          <t>MDMD-12D-- (24)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -760,84 +760,84 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MDRM-11--- (22)</t>
+          <t>MEFWR10--- (24)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MCMCL12--- (24)</t>
+          <t>MEFWR10--- (24)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MEFWR10--- (24)</t>
+          <t>MCH--12--- (23)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>MCMPS10--- (24)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>MCLE-10--- (29)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MCTWR11--- (24)</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MCMCL12--- (24)</t>
+          <t>MEN--09E-- (23)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>MENFP12--- (24)</t>
+          <t>MINST12--- (24)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MEN--09--- (24)</t>
+          <t>MDRM-10--- (29)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MEFWR10--- (24)</t>
+          <t>MEN--09--- (24)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>MENST12C-- (24)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MCLE-10--- (29)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>MCMPS10--- (24)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MENFP12--- (19)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MCLE-10--- (29)</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MCTWR11--- (24)</t>
+          <t>MCMPS10C-- (24)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MENST12--- (24)</t>
+          <t>MEVSC11--- (23)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>MMA--09C-- (29)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>MEPSS11--- (24)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>MENT-12--- (29)</t>
         </is>
       </c>
     </row>
@@ -849,79 +849,79 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MDMD-12D-- (24)</t>
+          <t>MEVSC11--- (23)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MENST12--- (17)</t>
+          <t>MCTWR11--- (24)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEFWR10--- (24)</t>
+          <t>MCMPS11--- (24)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MEFWR10--- (24)</t>
+          <t>MENFP12--- (24)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MFOOD11--- (23)</t>
+          <t>MFMP-10--- (29)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>MSC--10--- (23)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>MFMP-10--- (29)</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>MEVSC11--- (23)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MEN--09C-- (24)</t>
+          <t>MEN--09--- (24)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEN--09--- (24)</t>
+          <t>MFMP-10--- (29)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MENST12C-- (24)</t>
+          <t>MEFWR10--- (24)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MENFP12--- (24)</t>
+          <t>MEFWR10--- (24)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MEFWR10--- (23)</t>
+          <t>MFMP-10C-- (29)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MLFSC11--- (23)</t>
+          <t>MMEDD11--- (24)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>MLFSC11--- (23)</t>
+          <t>MSC--10--- (23)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>MFMP-10--- (29)</t>
+          <t>MFOOD12--- (23)</t>
         </is>
       </c>
     </row>
@@ -933,902 +933,910 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEN--09E-- (20)</t>
+          <t>MFOOD12--- (23)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MFMP-10--- (29)</t>
+          <t>MEFWR10--- (24)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MFOOD10--- (23)</t>
+          <t>MEN--09--- (24)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MEN--09--- (24)</t>
+          <t>MFOM-11--- (29)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MLTST11C-- (0)</t>
+          <t>MPH--11--- (23)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>MLST-12--- (24)</t>
+          <t>MSC--10--- (23)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>MFMP-10C-- (29)</t>
+          <t>MINST12--- (24)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MENFP12--Y (24)</t>
+          <t>MEN--09C-- (24)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>MFR--11--- (29)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MENFP12--- (24)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MEN--09--- (24)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>MFOOD10--- (23)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>MFMP-10--- (29)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MFOOD10--- (23)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MEN--09--- (24)</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MMA--09--- (29)</t>
+          <t>MPH--12--- (23)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>MLTST12--- (24)</t>
+          <t>MSJ--12--- (24)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MFOOD11--- (23)</t>
+          <t>MLST-12--- (24)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MEPSS11--- (24)</t>
+          <t>MENST12--- (24)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MFOOD12--- (23)</t>
+          <t>MINST12C-- (24)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MFMP-10H-- (29)</t>
+          <t>MENFP12--- (24)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MFOOD11--- (23)</t>
+          <t>MENFP12--- (24)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MENFP12--- (24)</t>
+          <t>MFOOD10--- (23)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MMACS11--- (24)</t>
+          <t>MPH--12--- (23)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>MSP--09--- (29)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>MMA--09--- (29)</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>MFR--11--- (29)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFMP-10C-- (29)</t>
+          <t>MEPSS11--- (24)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MFR--09--- (29)</t>
+          <t>MLTST11C-- (24)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MINST12--- (24)</t>
+          <t>MENST12--- (24)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MFR--10--- (24)</t>
+          <t>MENFP12--Y (24)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MEVSC11--- (19)</t>
+          <t>MLST-12--- (24)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MMACS11--- (24)</t>
+          <t>MPHE-09B-- (29)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MMACS11--- (24)</t>
+          <t>MSP--10--- (29)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>MINST12C-- (24)</t>
+          <t>MMACS12--- (21)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MFMP-10H-- (22)</t>
+          <t>MFMP-10--- (29)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIMG-12--- (13)</t>
+          <t>MLTST12--- (24)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MLFSC11--- (23)</t>
+          <t>MEVSC12C-- (23)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MMEDD10--- (24)</t>
+          <t>MENT-12--- (29)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MEVSC12C-- (23)</t>
+          <t>MMA--09--- (29)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MMACS11--- (13)</t>
+          <t>MPREC11--- (29)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MPREC12--- (22)</t>
+          <t>MSS--09--- (24)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>MLST-12--- (24)</t>
+          <t>MPH--11--- (23)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MFR--12--- (22)</t>
+          <t>MFMP-10C-- (29)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MLST-12--- (24)</t>
+          <t>MMACS11--- (24)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MMA--09H-- (29)</t>
+          <t>MFOOD10--- (23)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MPGEO12--- (24)</t>
+          <t>MFMP-10H-- (29)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MFOM-11--- (28)</t>
+          <t>MMA--09--- (29)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MMAP-11--- (29)</t>
+          <t>MPREC11H-- (29)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MPREC12H-- (29)</t>
+          <t>MSS--10--- (24)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>MLST-12--- (22)</t>
+          <t>MPH--11--- (23)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MINST12--- (24)</t>
+          <t>MFOOD10--- (23)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MMACS12--- (18)</t>
+          <t>MMACS11--- (24)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>MFOOD11--- (23)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MFMP-10H-- (29)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MMAP-11--- (29)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MSC--10C-- (23)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MTAUT12--- (21)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>MPH--11--- (23)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>MPH--12--- (23)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>MFOOD10--- (23)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>MPH--11--- (23)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>MSC--10--- (0)</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>MLTST11C-- (7)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MMA--09--- (29)</t>
+          <t>MFOOD11--- (23)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MPH--11--- (23)</t>
+          <t>MMACS12--- (24)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MPHE-09G-- (29)</t>
+          <t>MIMG-12--- (21)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>MFOOD11--- (23)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>MPHED10B-- (29)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>MFOOD12--- (23)</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MPH--12--- (23)</t>
+          <t>MSS--10--- (24)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MSP--12--- (19)</t>
+          <t>MTAUT12--- (21)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>MPH--11--- (23)</t>
+          <t>MPHE-09--- (29)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MMA--09C-- (4)</t>
+          <t>MFR--10--- (29)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MPH--11--- (23)</t>
+          <t>MPGEO12--- (24)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MPHED10--L (29)</t>
+          <t>MLFSC11--- (23)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>MFOOD12--- (23)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>MPHED10B-- (29)</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MFOOD12--- (23)</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MPHE-09B-- (19)</t>
+          <t>MTDRF11--- (24)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MSPLG10--L (24)</t>
+          <t>MWWK-11--- (21)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>MPH--11--- (11)</t>
+          <t>MPHE-09B-- (29)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MPHE-09--L (23)</t>
+          <t>MINST12C-- (24)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MPREC12--- (29)</t>
+          <t>MPH--11--- (23)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MPHED10B-- (29)</t>
+          <t>MLFSC11--- (23)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MPREC11--- (29)</t>
+          <t>MFR--09--- (29)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MINST12C-- (7)</t>
+          <t>MPREC12H-- (23)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MPREC11--- (0)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>MSS--09--- (24)</t>
+          <t>MTPOW10--- (21)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>MPH--12--- (23)</t>
+          <t>MPHED10G-- (29)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MPHE-09B-- (0)</t>
+          <t>MLST-12--- (24)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MSC--09--- (23)</t>
+          <t>MPHE-09--L (32)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MPHED10B-- (26)</t>
+          <t>MMA--09H-- (29)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MPREC11--- (17)</t>
+          <t>MFR--12--- (29)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MMACS12--- (24)</t>
+          <t>MSC--09--- (13)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MPREC12H-- (4)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>MSS--09--- (0)</t>
+          <t>MWH--12--- (24)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>MPHE-09--- (22)</t>
+          <t>MPREC11--- (29)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MPHE-09G-- (24)</t>
+          <t>MMACS11--- (24)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MSC--09--- (23)</t>
+          <t>MPHE-09G-- (27)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MPHED10G-- (29)</t>
+          <t>MMACS11--- (24)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MPREC11H-- (3)</t>
+          <t>MLFSC11--- (23)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MMEDD11--- (9)</t>
+          <t>MSC--09C-- (23)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MSC--10--- (23)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>MSS--09C-- (24)</t>
+          <t>XBA--09G-- (29)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>MPREC11--- (29)</t>
+          <t>MPREC11H-- (24)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>MPH--12--- (23)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MPREC11--- (29)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MMEDD10--- (24)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MLST-12--- (24)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MSC--10--- (23)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>XLDCE09NM- (11)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>MPREC12--- (29)</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MSC--10--- (23)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>MPHED10G-- (1)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>MSC--09--- (23)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>MPHED10--- (16)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>MSC--10--- (23)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>MSS--09C-- (15)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>MSC--10--- (23)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MSC--09--- (14)</t>
+          <t>MPHED10--- (29)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MSC--10--- (23)</t>
+          <t>MPREC12H-- (29)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MPREC11H-- (29)</t>
+          <t>MPH--11--- (23)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MSC--09--- (23)</t>
+          <t>MLTST11C-- (24)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MPREC11--- (29)</t>
+          <t>MSPLG11--- (24)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MSP--09--- (19)</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>MSS--10--- (24)</t>
+          <t>YLAW-2CX-- (24)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>MSC--10--- (23)</t>
+          <t>MPREC12--- (29)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MSC--10C-- (20)</t>
+          <t>MPHED10B-- (29)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MSC--10--- (0)</t>
+          <t>MSC--10--- (23)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MSC--10--- (18)</t>
+          <t>MPHE-09G-- (29)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MSC--09C-- (14)</t>
+          <t>MPHED10B-- (29)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MPREC12--- (29)</t>
+          <t>MSS--09C-- (24)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSS--09--- (24)</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>MSS--10--- (0)</t>
+          <t>YPSYC1AX-- (24)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>MSP--10--- (29)</t>
+          <t>MSC--09--- (23)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MSP--10--- (18)</t>
+          <t>MPHED10G-- (29)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MSP--09--- (0)</t>
+          <t>MSC--10--- (23)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MSC--10C-- (0)</t>
+          <t>MPHED10--L (29)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MSJ--12--- (22)</t>
+          <t>MPREC12--- (29)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MSC--09--- (0)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>MTAUT12--- (21)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>MTDRF12--- (16)</t>
+          <t>MSS--10--- (24)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>MSS--09--- (10)</t>
+          <t>MSS--09--- (24)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MSPLG11--- (0)</t>
+          <t>MPREC11--- (29)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MSP--11--- (17)</t>
+          <t>MSC--10C-- (23)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MTPOW10--- (2)</t>
+          <t>MPREC11--- (29)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MSS--10--- (24)</t>
+          <t>MSC--09--- (23)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MSC--09C-- (23)</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>MVAST12--- (29)</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>MVAPH11--- (23)</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>MTAUT12--- (21)</t>
+          <t>MSS--09--- (24)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>MPREC12--- (29)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MSP--09--- (29)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MSC--09--- (23)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MSC--09--- (23)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MWWK-10--- (21)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>MSS--10--- (24)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MSS--10--- (24)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>MWH--12--- (4)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>MSS--10--- (24)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>MSS--09--- (24)</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>MWBDV10IT- (24)</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>YLAW-2CX-- (2)</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>MTEAR10--- (24)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MSS--10--- (6)</t>
+          <t>MSC--09C-- (23)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>MSP--12--- (29)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MSC--09--- (23)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MSS--10--- (24)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>XLDCB09M-- (21)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>MTDRF10--- (24)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>MWWK-11--- (21)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>MSS--10C-- (15)</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>MSS--10--- (24)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>YED--1DX-- (4)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MSS--10--- (0)</t>
+          <t>MSC--10--- (23)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MWPM-10--- (17)</t>
+          <t>MSS--10C-- (16)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MWWK-12--- (21)</t>
+          <t>MSC--10--- (23)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MTDRF11--- (18)</t>
+          <t>MVAPH10--- (24)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MSS--10C-- (24)</t>
+          <t>YED--1DX-- (15)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>YLAW-2CX-- (24)</t>
+          <t>MWPM-10--- (29)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MTDRF10--- (18)</t>
+          <t>MSC--10--- (23)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>YED--2CX-- (9)</t>
+          <t>MTAUT11--- (21)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>XLDCE09NM- (9)</t>
+          <t>MSS--09--- (24)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MWH--12--- (24)</t>
+          <t>MWBDV10IT- (24)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MTAUT11--- (10)</t>
+          <t>YLAW-2CX-- (24)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>XLEAD09--- (22)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MVAST10--- (25)</t>
+          <t>MSP--10--- (29)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>MTEAR10--- (24)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MSS--10--- (24)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>YPSYC1AX-- (24)</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>XLEAD09--- (26)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>YLAW-2CX-- (24)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>MVAPH10--- (24)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MWWK-10--- (21)</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>MWPM-11--- (6)</t>
+          <t>MSP--11--- (29)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MWWK-12--- (21)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MSS--10--- (24)</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>XBA--09G-- (29)</t>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MSPLG10--L (24)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MSS--10--- (24)</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>XLDCB09M-- (21)</t>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MSS--09--- (24)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MSS--10--- (24)</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>YPSYC1AX-- (23)</t>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MSS--09C-- (24)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MSS--10C-- (24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MTDRF10--- (24)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MVAPH11--- (24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MTDRF12--- (24)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MWH--12--- (24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MVAST10--- (29)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MWPM-11--- (29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>YED--2CX-- (19)</t>
         </is>
       </c>
     </row>
